--- a/Project/Test/Params.xlsx
+++ b/Project/Test/Params.xlsx
@@ -19,13 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>DB</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SQLServer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLite</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -429,6 +433,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/Test/Params.xlsx
+++ b/Project/Test/Params.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DB</t>
     <phoneticPr fontId="1"/>
@@ -30,6 +30,10 @@
   </si>
   <si>
     <t>SQLite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Postgres</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -412,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -438,6 +442,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/Test/Params.xlsx
+++ b/Project/Test/Params.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DB</t>
     <phoneticPr fontId="1"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>Postgres</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -98,16 +102,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -416,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -447,6 +480,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/Test/Params.xlsx
+++ b/Project/Test/Params.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>DB</t>
     <phoneticPr fontId="1"/>
@@ -38,6 +38,10 @@
   </si>
   <si>
     <t>MySQL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -449,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -485,6 +489,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/Test/Params.xlsx
+++ b/Project/Test/Params.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DB</t>
     <phoneticPr fontId="1"/>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>Oracle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -453,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -494,6 +498,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
